--- a/Bản sao của Phân chia công việc.xlsx
+++ b/Bản sao của Phân chia công việc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\bailam\deploy\datVeXemPhim-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tailieu\TT_cyber\fiver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7654E2E0-04CF-4138-9320-A5047FF99E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0133ED1F-89D1-4493-A537-C6C8236659BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-750" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>100%%</t>
+  </si>
+  <si>
+    <t>login, register</t>
   </si>
 </sst>
 </file>
@@ -278,7 +281,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -497,12 +500,12 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J13" sqref="J13:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -545,7 +548,7 @@
         <v>45931</v>
       </c>
       <c r="D2" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>10</v>
@@ -555,16 +558,16 @@
         <v>45931</v>
       </c>
       <c r="H2" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" s="36">
         <v>45634</v>
@@ -573,10 +576,10 @@
         <v>45931</v>
       </c>
       <c r="D3" s="16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12">
@@ -586,13 +589,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J3" s="14"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="36">
         <v>45634</v>
@@ -600,8 +603,8 @@
       <c r="C4" s="8">
         <v>45931</v>
       </c>
-      <c r="D4" s="13">
-        <v>1</v>
+      <c r="D4" s="16">
+        <v>0.5</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>12</v>
@@ -610,7 +613,7 @@
       <c r="G4" s="12">
         <v>45931</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="17">
         <v>1</v>
       </c>
       <c r="I4" s="10" t="s">
@@ -618,9 +621,9 @@
       </c>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>14</v>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="36">
         <v>45634</v>
@@ -628,37 +631,53 @@
       <c r="C5" s="8">
         <v>45931</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="13">
         <v>1</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12">
+        <v>45931</v>
+      </c>
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="36">
+        <v>45634</v>
+      </c>
+      <c r="C6" s="8">
+        <v>45931</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="12">
-        <v>45931</v>
-      </c>
-      <c r="H5" s="21" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="12">
+        <v>45931</v>
+      </c>
+      <c r="H6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -670,7 +689,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="29"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -682,7 +701,7 @@
       <c r="I8" s="28"/>
       <c r="J8" s="29"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -694,7 +713,7 @@
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -706,7 +725,7 @@
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -718,7 +737,7 @@
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -730,7 +749,7 @@
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -742,7 +761,7 @@
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
